--- a/microservice-production/microservice-data-analysis-api/src/main/resources/excelTemplate/moldData.xlsx
+++ b/microservice-production/microservice-data-analysis-api/src/main/resources/excelTemplate/moldData.xlsx
@@ -4,22 +4,29 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20925" windowHeight="9840" tabRatio="409"/>
+    <workbookView windowWidth="20925" windowHeight="9840" tabRatio="324"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="数据搜集模板" sheetId="1" r:id="rId1"/>
+    <sheet name="数据格式备注" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
   <si>
     <t>项目量产模具数据表</t>
   </si>
   <si>
+    <t>事业部</t>
+  </si>
+  <si>
     <t>类别</t>
+  </si>
+  <si>
+    <t>镜片数</t>
   </si>
   <si>
     <t>项目</t>
@@ -32,13 +39,22 @@
     <t>材料</t>
   </si>
   <si>
+    <t>模具序号</t>
+  </si>
+  <si>
     <t>模具类型</t>
   </si>
   <si>
     <t>模仁钝化工艺</t>
   </si>
   <si>
-    <t>流道类型</t>
+    <t>流道类型（模具自定义）</t>
+  </si>
+  <si>
+    <t>型腔内径</t>
+  </si>
+  <si>
+    <t>型腔内径极差</t>
   </si>
   <si>
     <t>流道尺寸（直径）</t>
@@ -65,10 +81,42 @@
     <t xml:space="preserve">三级分流道(mm) </t>
   </si>
   <si>
-    <t>分型面(um)</t>
-  </si>
-  <si>
-    <t>分割位(um)</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分型面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>排气</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(um)</t>
+    </r>
+  </si>
+  <si>
+    <t>R1分割位排气(um)</t>
+  </si>
+  <si>
+    <t>R2分割位排气(um)</t>
   </si>
   <si>
     <t>宽度(mm)</t>
@@ -81,6 +129,113 @@
   </si>
   <si>
     <t>R2面厚度(mm)</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>分类</t>
+  </si>
+  <si>
+    <t>手机</t>
+  </si>
+  <si>
+    <t>非手机-VR</t>
+  </si>
+  <si>
+    <t>非手机-车载</t>
+  </si>
+  <si>
+    <t>非手机-无人机</t>
+  </si>
+  <si>
+    <t>等等</t>
+  </si>
+  <si>
+    <t>主摄</t>
+  </si>
+  <si>
+    <t>广角</t>
+  </si>
+  <si>
+    <t>长焦</t>
+  </si>
+  <si>
+    <t>鱼眼</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PEL5014CL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P9000</t>
+    </r>
+  </si>
+  <si>
+    <t>双分</t>
+  </si>
+  <si>
+    <t>整体</t>
+  </si>
+  <si>
+    <t>分割位置</t>
+  </si>
+  <si>
+    <t>承靠到终端</t>
+  </si>
+  <si>
+    <t>承靠到外径</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>正向开模</t>
+  </si>
+  <si>
+    <t>反向开模</t>
   </si>
 </sst>
 </file>
@@ -93,7 +248,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,8 +265,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -463,36 +632,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -531,19 +676,17 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -655,10 +798,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -667,166 +810,205 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1176,137 +1358,166 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="12.75" customWidth="1"/>
-    <col min="8" max="8" width="14.625" customWidth="1"/>
-    <col min="9" max="9" width="15.5" customWidth="1"/>
-    <col min="10" max="10" width="16.5" customWidth="1"/>
-    <col min="11" max="11" width="12.125" customWidth="1"/>
-    <col min="12" max="12" width="11.25" customWidth="1"/>
-    <col min="14" max="14" width="12" customWidth="1"/>
-    <col min="15" max="15" width="12.375" customWidth="1"/>
-    <col min="16" max="16" width="12.75" customWidth="1"/>
-    <col min="17" max="17" width="14.25" customWidth="1"/>
+    <col min="7" max="8" width="10.5" customWidth="1"/>
+    <col min="13" max="13" width="14.625" customWidth="1"/>
+    <col min="14" max="14" width="15.5" customWidth="1"/>
+    <col min="15" max="15" width="16.5" customWidth="1"/>
+    <col min="16" max="16" width="12.125" customWidth="1"/>
+    <col min="17" max="17" width="9.875" customWidth="1"/>
+    <col min="19" max="19" width="12" customWidth="1"/>
+    <col min="20" max="20" width="12.375" customWidth="1"/>
+    <col min="21" max="21" width="12.75" customWidth="1"/>
+    <col min="22" max="22" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.1" customHeight="1" spans="1:18">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="29.1" customHeight="1" spans="1:24">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="8"/>
-    </row>
-    <row r="2" ht="21" customHeight="1" spans="1:18">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+    </row>
+    <row r="2" ht="21" customHeight="1" spans="1:24">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6" t="s">
+      <c r="I2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="4" t="s">
+      <c r="J2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="K2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="9" t="s">
+      <c r="L2" s="17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" ht="39" customHeight="1" spans="1:18">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4" t="s">
+      <c r="M2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="T2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4" t="s">
+    </row>
+    <row r="3" ht="39" customHeight="1" spans="1:24">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="N3" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="O3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="P3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="R3" s="9"/>
+      <c r="Q3" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="U3" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="V3" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="W3" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="X3" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:Q2"/>
+  <mergeCells count="18">
+    <mergeCell ref="A1:X1"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="T2:W2"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -1314,20 +1525,19 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="X2:X3"/>
   </mergeCells>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
-      <formula1>"双分,整体"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
-      <formula1>"12-50普通,16-50,12-50套筒"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2">
       <formula1>"T0,T1,T2,T3,点浇口,侧浇口"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X3">
       <formula1>"正开模,倒开模"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1335,4 +1545,223 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C3:D31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="3" spans="3:4">
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4">
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4">
+      <c r="C5" s="3"/>
+      <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4">
+      <c r="C6" s="3"/>
+      <c r="D6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4">
+      <c r="C7" s="3"/>
+      <c r="D7" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4">
+      <c r="C8" s="4"/>
+      <c r="D8" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4">
+      <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4">
+      <c r="C10" s="3"/>
+      <c r="D10" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
+      <c r="C11" s="3"/>
+      <c r="D11" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4">
+      <c r="C12" s="3"/>
+      <c r="D12" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4">
+      <c r="C13" s="4"/>
+      <c r="D13" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4">
+      <c r="C14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4">
+      <c r="C15" s="3"/>
+      <c r="D15" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4">
+      <c r="C16" s="3"/>
+      <c r="D16" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" s="4"/>
+      <c r="D17" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" s="3"/>
+      <c r="D19" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="4"/>
+      <c r="D20" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="C22" s="4"/>
+      <c r="D22" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4">
+      <c r="C23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="C24" s="4"/>
+      <c r="D24" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4">
+      <c r="C25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4">
+      <c r="C26" s="3"/>
+      <c r="D26" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4">
+      <c r="C27" s="3"/>
+      <c r="D27" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4">
+      <c r="C28" s="4"/>
+      <c r="D28" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4">
+      <c r="C29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4">
+      <c r="C30" s="3"/>
+      <c r="D30" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4">
+      <c r="C31" s="4"/>
+      <c r="D31" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="C29:C31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/microservice-production/microservice-data-analysis-api/src/main/resources/excelTemplate/moldData.xlsx
+++ b/microservice-production/microservice-data-analysis-api/src/main/resources/excelTemplate/moldData.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20925" windowHeight="9840" tabRatio="324"/>
+    <workbookView windowWidth="20925" windowHeight="9840" tabRatio="324" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="数据搜集模板" sheetId="1" r:id="rId1"/>
-    <sheet name="数据格式备注" sheetId="2" r:id="rId2"/>
+    <sheet name="数据格式说明" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="107">
   <si>
     <t>项目量产模具数据表</t>
   </si>
@@ -45,10 +45,13 @@
     <t>模具类型</t>
   </si>
   <si>
+    <t>模具类型总数</t>
+  </si>
+  <si>
     <t>模仁钝化工艺</t>
   </si>
   <si>
-    <t>流道类型（模具自定义）</t>
+    <t>流道类型</t>
   </si>
   <si>
     <t>型腔内径</t>
@@ -72,45 +75,16 @@
     <t>开模方式</t>
   </si>
   <si>
-    <t>一级分流道(mm)</t>
+    <t>主流道(mm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一级分流道(mm) </t>
   </si>
   <si>
     <t xml:space="preserve">二级分流道(mm) </t>
   </si>
   <si>
-    <t xml:space="preserve">三级分流道(mm) </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>分型面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>排气</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(um)</t>
-    </r>
+    <t>分型面排气(um)</t>
   </si>
   <si>
     <t>R1分割位排气(um)</t>
@@ -131,37 +105,13 @@
     <t>R2面厚度(mm)</t>
   </si>
   <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>分类</t>
-  </si>
-  <si>
     <t>手机</t>
   </si>
   <si>
-    <t>非手机-VR</t>
-  </si>
-  <si>
-    <t>非手机-车载</t>
-  </si>
-  <si>
-    <t>非手机-无人机</t>
-  </si>
-  <si>
-    <t>等等</t>
-  </si>
-  <si>
-    <t>主摄</t>
-  </si>
-  <si>
-    <t>广角</t>
-  </si>
-  <si>
-    <t>长焦</t>
-  </si>
-  <si>
-    <t>鱼眼</t>
+    <t>后置主摄</t>
+  </si>
+  <si>
+    <t>3P</t>
   </si>
   <si>
     <r>
@@ -172,7 +122,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A</t>
+      <t>P</t>
     </r>
     <r>
       <rPr>
@@ -182,8 +132,50 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>PEL5014CL</t>
+      <t>1</t>
     </r>
+  </si>
+  <si>
+    <t>EP3500</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>12双分推板-50（套筒）</t>
+  </si>
+  <si>
+    <t>DH1</t>
+  </si>
+  <si>
+    <t>冷流道</t>
+  </si>
+  <si>
+    <t>根据模具实际加工值输入</t>
+  </si>
+  <si>
+    <t>1.2*1.35</t>
+  </si>
+  <si>
+    <t>10-12、15-16、21-22，若为整体式模具，无分割位排气则输入“/”</t>
+  </si>
+  <si>
+    <t>侧浇口</t>
+  </si>
+  <si>
+    <t>根据模流提供浇口尺寸值输入</t>
+  </si>
+  <si>
+    <t>正开模</t>
+  </si>
+  <si>
+    <t>非手机-VR</t>
+  </si>
+  <si>
+    <t>后置广角</t>
+  </si>
+  <si>
+    <t>4P</t>
   </si>
   <si>
     <r>
@@ -194,7 +186,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>E</t>
+      <t>P</t>
     </r>
     <r>
       <rPr>
@@ -204,38 +196,318 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>P9000</t>
+      <t>2</t>
     </r>
   </si>
   <si>
-    <t>双分</t>
-  </si>
-  <si>
-    <t>整体</t>
-  </si>
-  <si>
-    <t>分割位置</t>
-  </si>
-  <si>
-    <t>承靠到终端</t>
-  </si>
-  <si>
-    <t>承靠到外径</t>
-  </si>
-  <si>
-    <t>TO</t>
-  </si>
-  <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>T2</t>
-  </si>
-  <si>
-    <t>正向开模</t>
-  </si>
-  <si>
-    <t>反向开模</t>
+    <t>……</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>12双分推板-50</t>
+  </si>
+  <si>
+    <t>DH2</t>
+  </si>
+  <si>
+    <t>热流道</t>
+  </si>
+  <si>
+    <t>1.35*1.5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>倒开模</t>
+  </si>
+  <si>
+    <t>非手机-车载</t>
+  </si>
+  <si>
+    <t>后置长焦</t>
+  </si>
+  <si>
+    <t>5P</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>EP10000</t>
+  </si>
+  <si>
+    <t>N1A</t>
+  </si>
+  <si>
+    <t>12双分推板-50-9</t>
+  </si>
+  <si>
+    <t>DH3</t>
+  </si>
+  <si>
+    <t>1.5*1.65</t>
+  </si>
+  <si>
+    <t>1.6*1.75</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>非手机-无人机</t>
+  </si>
+  <si>
+    <t>后置景深</t>
+  </si>
+  <si>
+    <t>6P</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <t>SP5590</t>
+  </si>
+  <si>
+    <t>16双分推板-50</t>
+  </si>
+  <si>
+    <t>DH4</t>
+  </si>
+  <si>
+    <t>1.8*1.95</t>
+  </si>
+  <si>
+    <t>非手机-运动相机</t>
+  </si>
+  <si>
+    <t>前置小头</t>
+  </si>
+  <si>
+    <t>7P</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <t>APL5014(04)</t>
+  </si>
+  <si>
+    <t>16前排</t>
+  </si>
+  <si>
+    <t>DH5</t>
+  </si>
+  <si>
+    <t>2.0*2.15</t>
+  </si>
+  <si>
+    <t>CSP镜头</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G5P</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+  </si>
+  <si>
+    <t>K26R</t>
+  </si>
+  <si>
+    <t>16后排</t>
+  </si>
+  <si>
+    <t>2.15*2.3</t>
+  </si>
+  <si>
+    <t>前置主摄</t>
+  </si>
+  <si>
+    <t>1G6P</t>
+  </si>
+  <si>
+    <t>T62R</t>
+  </si>
+  <si>
+    <t>24整体-52</t>
+  </si>
+  <si>
+    <t>若无钝化，输入“/”</t>
+  </si>
+  <si>
+    <t>2.3*2.45</t>
+  </si>
+  <si>
+    <t>屏下指纹</t>
+  </si>
+  <si>
+    <t>2G4P</t>
+  </si>
+  <si>
+    <t>APP600</t>
+  </si>
+  <si>
+    <t>24整体-60</t>
+  </si>
+  <si>
+    <t>红外镜头</t>
+  </si>
+  <si>
+    <t>24整体-66</t>
+  </si>
+  <si>
+    <t>2.6*2.75</t>
+  </si>
+  <si>
+    <t>微距景深</t>
+  </si>
+  <si>
+    <t>24整体-75</t>
+  </si>
+  <si>
+    <t>景深镜头</t>
+  </si>
+  <si>
+    <t>24整体热流道-52</t>
+  </si>
+  <si>
+    <t>24整体热流道-60</t>
   </si>
 </sst>
 </file>
@@ -248,10 +520,16 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -265,6 +543,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -272,8 +563,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF92D050"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -281,14 +579,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -438,7 +728,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -447,6 +737,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -632,9 +928,18 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -676,20 +981,18 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -798,10 +1101,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -810,205 +1113,241 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1358,166 +1697,171 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="7" max="8" width="10.5" customWidth="1"/>
-    <col min="13" max="13" width="14.625" customWidth="1"/>
-    <col min="14" max="14" width="15.5" customWidth="1"/>
-    <col min="15" max="15" width="16.5" customWidth="1"/>
-    <col min="16" max="16" width="12.125" customWidth="1"/>
-    <col min="17" max="17" width="9.875" customWidth="1"/>
-    <col min="19" max="19" width="12" customWidth="1"/>
-    <col min="20" max="20" width="12.375" customWidth="1"/>
-    <col min="21" max="21" width="12.75" customWidth="1"/>
-    <col min="22" max="22" width="11" customWidth="1"/>
+    <col min="7" max="9" width="10.5" customWidth="1"/>
+    <col min="14" max="14" width="14.625" customWidth="1"/>
+    <col min="15" max="15" width="15.5" customWidth="1"/>
+    <col min="16" max="16" width="16.5" customWidth="1"/>
+    <col min="17" max="17" width="12.125" customWidth="1"/>
+    <col min="18" max="18" width="9.875" customWidth="1"/>
+    <col min="20" max="20" width="12" customWidth="1"/>
+    <col min="21" max="21" width="12.375" customWidth="1"/>
+    <col min="22" max="22" width="12.75" customWidth="1"/>
+    <col min="23" max="23" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.1" customHeight="1" spans="1:24">
-      <c r="A1" s="7" t="s">
+    <row r="1" ht="22.5" spans="1:25">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
     </row>
-    <row r="2" ht="21" customHeight="1" spans="1:24">
-      <c r="A2" s="8" t="s">
+    <row r="2" ht="18.75" spans="1:25">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="M2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18" t="s">
+      <c r="N2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="20" t="s">
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="T2" s="18" t="s">
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="21" t="s">
+      <c r="U2" s="15" t="s">
         <v>17</v>
       </c>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="33" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" ht="39" customHeight="1" spans="1:24">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="20" t="s">
+    <row r="3" ht="28.5" spans="1:25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="O3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="20" t="s">
+      <c r="P3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="22" t="s">
+      <c r="Q3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="22" t="s">
+      <c r="R3" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20" t="s">
+      <c r="S3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="20" t="s">
+      <c r="T3" s="24"/>
+      <c r="U3" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="V3" s="20" t="s">
+      <c r="V3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="W3" s="20" t="s">
+      <c r="W3" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="X3" s="21"/>
+      <c r="X3" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y3" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A1:X1"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="T2:W2"/>
+  <mergeCells count="19">
+    <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="U2:X2"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -1530,17 +1874,10 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="Y2:Y3"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2">
-      <formula1>"T0,T1,T2,T3,点浇口,侧浇口"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X3">
-      <formula1>"正开模,倒开模"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1550,218 +1887,579 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:D31"/>
+  <dimension ref="A1:Y16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D31"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="8" max="8" width="19.875" customWidth="1"/>
+    <col min="9" max="9" width="15.75" customWidth="1"/>
+    <col min="20" max="20" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="3:4">
-      <c r="C3" s="1" t="s">
+    <row r="1" ht="22.5" spans="1:25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:25">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="28.5" spans="1:25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="T3" s="24"/>
+      <c r="U3" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="V3" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="W3" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="X3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="Y3" s="33"/>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" t="s">
         <v>29</v>
       </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="19">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="21"/>
+      <c r="O4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="26">
+        <v>10</v>
+      </c>
+      <c r="R4" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" s="28"/>
+      <c r="T4" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="U4" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="12" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="4" spans="3:4">
-      <c r="C4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>30</v>
+    <row r="5" spans="1:25">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="19">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q5" s="26">
+        <v>13</v>
+      </c>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="12" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="5" spans="3:4">
-      <c r="C5" s="3"/>
-      <c r="D5" s="1" t="s">
-        <v>31</v>
-      </c>
+    <row r="6" spans="1:24">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="19">
+        <v>3</v>
+      </c>
+      <c r="J6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="O6" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q6" s="26">
+        <v>14</v>
+      </c>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
     </row>
-    <row r="6" spans="3:4">
-      <c r="C6" s="3"/>
-      <c r="D6" s="1" t="s">
-        <v>32</v>
-      </c>
+    <row r="7" spans="1:24">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="O7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q7" s="26">
+        <v>15</v>
+      </c>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
     </row>
-    <row r="7" spans="3:4">
-      <c r="C7" s="3"/>
-      <c r="D7" s="1" t="s">
-        <v>33</v>
-      </c>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O8" t="s">
+        <v>74</v>
+      </c>
+      <c r="P8" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q8" s="26">
+        <v>16</v>
+      </c>
+      <c r="T8" s="26"/>
     </row>
-    <row r="8" spans="3:4">
-      <c r="C8" s="4"/>
-      <c r="D8" s="1" t="s">
-        <v>34</v>
-      </c>
+    <row r="9" spans="1:20">
+      <c r="A9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="O9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q9" s="26">
+        <v>20</v>
+      </c>
+      <c r="T9" s="26"/>
     </row>
-    <row r="9" spans="3:4">
-      <c r="C9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>35</v>
-      </c>
+    <row r="10" spans="2:20">
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="I10" s="13"/>
+      <c r="J10" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="O10" t="s">
+        <v>88</v>
+      </c>
+      <c r="P10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q10" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="T10" s="26"/>
     </row>
-    <row r="10" spans="3:4">
-      <c r="C10" s="3"/>
-      <c r="D10" s="1" t="s">
-        <v>36</v>
-      </c>
+    <row r="11" spans="2:20">
+      <c r="B11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="22"/>
+      <c r="O11" t="s">
+        <v>94</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q11" s="26"/>
+      <c r="T11" s="26"/>
     </row>
-    <row r="11" spans="3:4">
-      <c r="C11" s="3"/>
-      <c r="D11" s="1" t="s">
-        <v>37</v>
-      </c>
+    <row r="12" spans="2:17">
+      <c r="B12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="I12" s="13"/>
+      <c r="J12" s="22"/>
+      <c r="O12" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q12" s="26"/>
     </row>
-    <row r="12" spans="3:4">
-      <c r="C12" s="3"/>
-      <c r="D12" s="1" t="s">
-        <v>38</v>
+    <row r="13" spans="2:15">
+      <c r="B13" t="s">
+        <v>102</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="I13" s="13"/>
+      <c r="O13" s="12" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="13" spans="3:4">
-      <c r="C13" s="4"/>
-      <c r="D13" s="1" t="s">
-        <v>34</v>
-      </c>
+    <row r="14" spans="2:9">
+      <c r="B14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="I14" s="13"/>
     </row>
-    <row r="14" spans="3:4">
-      <c r="C14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="5">
-        <v>4</v>
-      </c>
+    <row r="15" spans="2:9">
+      <c r="B15" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" s="13"/>
     </row>
-    <row r="15" spans="3:4">
-      <c r="C15" s="3"/>
-      <c r="D15" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="3:4">
-      <c r="C16" s="3"/>
-      <c r="D16" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4">
-      <c r="C17" s="4"/>
-      <c r="D17" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4">
-      <c r="C18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4">
-      <c r="C19" s="3"/>
-      <c r="D19" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="4"/>
-      <c r="D20" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="4"/>
-      <c r="D22" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4">
-      <c r="C24" s="4"/>
-      <c r="D24" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4">
-      <c r="C25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4">
-      <c r="C26" s="3"/>
-      <c r="D26" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4">
-      <c r="C27" s="3"/>
-      <c r="D27" s="6" t="s">
+    <row r="16" spans="8:9">
+      <c r="H16" s="13" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="28" spans="3:4">
-      <c r="C28" s="4"/>
-      <c r="D28" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4">
-      <c r="C29" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="3:4">
-      <c r="C30" s="3"/>
-      <c r="D30" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="3:4">
-      <c r="C31" s="4"/>
-      <c r="D31" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="I16" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="C29:C31"/>
+  <mergeCells count="23">
+    <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="U2:X2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="L4:M7"/>
+    <mergeCell ref="R4:S7"/>
+    <mergeCell ref="U4:X7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>